--- a/Factors and Ridership Data/Model Estimation/Est10/FAC Comparison.xlsx
+++ b/Factors and Ridership Data/Model Estimation/Est10/FAC Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rianajawad/Documents/GitHub/transit_ridership_decline/Factors and Ridership Data/Model Estimation/Est10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EB7DA2-6D9F-D941-A19C-2EA3FA81193D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E18C3-1B2C-684D-9022-4F925B8662C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="980" windowWidth="27640" windowHeight="15660" xr2:uid="{A2CC5FDF-671D-FE45-969F-DE528DA0888D}"/>
+    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15660" xr2:uid="{A2CC5FDF-671D-FE45-969F-DE528DA0888D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="39">
   <si>
     <t>FAC 7-4</t>
   </si>
@@ -670,12 +670,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -688,6 +682,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF80778B-94E5-2441-9777-E5F178EBD01F}">
   <dimension ref="A1:T180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1021,9 @@
     <col min="9" max="9" width="6.1640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="9"/>
     <col min="11" max="11" width="33.1640625" style="9" customWidth="1"/>
-    <col min="12" max="14" width="6.1640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="9" customWidth="1"/>
     <col min="15" max="15" width="7.1640625" style="9" customWidth="1"/>
     <col min="16" max="18" width="6.1640625" style="9" customWidth="1"/>
     <col min="19" max="19" width="6.1640625" style="12" customWidth="1"/>
@@ -1103,32 +1105,32 @@
     </row>
     <row r="5" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82" t="s">
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
@@ -2957,32 +2959,32 @@
     </row>
     <row r="50" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82" t="s">
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
       <c r="J50" s="20"/>
       <c r="K50" s="21"/>
-      <c r="L50" s="82" t="s">
+      <c r="L50" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82" t="s">
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="83"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="95"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
@@ -3042,770 +3044,770 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="84">
+      <c r="B52" s="82">
         <v>-2.701547488108802E-3</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="82">
         <v>-4.5100424261234839E-2</v>
       </c>
-      <c r="D52" s="84">
+      <c r="D52" s="82">
         <v>-0.14190550994109097</v>
       </c>
-      <c r="E52" s="84">
+      <c r="E52" s="82">
         <v>-9.1542864082622688E-2</v>
       </c>
-      <c r="F52" s="84">
+      <c r="F52" s="82">
         <v>-1.8678733681664662E-2</v>
       </c>
-      <c r="G52" s="84">
+      <c r="G52" s="82">
         <v>8.5839010691644457E-2</v>
       </c>
-      <c r="H52" s="84">
+      <c r="H52" s="82">
         <v>0.37913379286042637</v>
       </c>
-      <c r="I52" s="84">
+      <c r="I52" s="82">
         <v>-5.7495038602472411E-2</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="84">
+      <c r="L52" s="82">
         <v>5.2755247725843279E-2</v>
       </c>
-      <c r="M52" s="84">
+      <c r="M52" s="82">
         <v>0.12000258669428976</v>
       </c>
-      <c r="N52" s="84">
+      <c r="N52" s="82">
         <v>7.7968347007619565E-2</v>
       </c>
-      <c r="O52" s="84">
+      <c r="O52" s="82">
         <v>1.1857274652532057E-2</v>
       </c>
-      <c r="P52" s="84">
+      <c r="P52" s="82">
         <v>3.8748310239299547E-2</v>
       </c>
-      <c r="Q52" s="84">
+      <c r="Q52" s="82">
         <v>7.2715261189903013E-2</v>
       </c>
-      <c r="R52" s="84">
+      <c r="R52" s="82">
         <v>6.4853514207780252E-2</v>
       </c>
-      <c r="S52" s="85">
+      <c r="S52" s="83">
         <v>8.4652858507268235E-3</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="84">
+      <c r="B53" s="82">
         <v>0.16528981779400342</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="82">
         <v>9.6556094219701238E-2</v>
       </c>
-      <c r="D53" s="84">
+      <c r="D53" s="82">
         <v>7.5662795166893559E-2</v>
       </c>
-      <c r="E53" s="84">
+      <c r="E53" s="82">
         <v>0.75919208340029121</v>
       </c>
-      <c r="F53" s="84">
+      <c r="F53" s="82">
         <v>-3.350682100395775E-2</v>
       </c>
-      <c r="G53" s="84">
+      <c r="G53" s="82">
         <v>-3.8163971935653282E-2</v>
       </c>
-      <c r="H53" s="84">
+      <c r="H53" s="82">
         <v>-8.1329199146503231E-2</v>
       </c>
-      <c r="I53" s="84">
+      <c r="I53" s="82">
         <v>-7.3913189653206562E-2</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="84">
+      <c r="L53" s="82">
         <v>-1.4491526452749204E-2</v>
       </c>
-      <c r="M53" s="84">
+      <c r="M53" s="82">
         <v>1.7462127618174117E-2</v>
       </c>
-      <c r="N53" s="84">
+      <c r="N53" s="82">
         <v>0.17182137603862047</v>
       </c>
-      <c r="O53" s="84">
+      <c r="O53" s="82">
         <v>0.25866623537223865</v>
       </c>
-      <c r="P53" s="84">
+      <c r="P53" s="82">
         <v>-2.2078570275638012E-3</v>
       </c>
-      <c r="Q53" s="84">
+      <c r="Q53" s="82">
         <v>-2.9322456115547122E-3</v>
       </c>
-      <c r="R53" s="84">
+      <c r="R53" s="82">
         <v>-2.9792946182522647E-2</v>
       </c>
-      <c r="S53" s="85">
+      <c r="S53" s="83">
         <v>-5.67673236753376E-2</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="84">
+      <c r="B54" s="82">
         <v>0.16104018291321065</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="82">
         <v>0.15275576827316439</v>
       </c>
-      <c r="D54" s="84">
+      <c r="D54" s="82">
         <v>2.5740680587510667E-2</v>
       </c>
-      <c r="E54" s="84">
+      <c r="E54" s="82">
         <v>0.15994463230777156</v>
       </c>
-      <c r="F54" s="84">
+      <c r="F54" s="82">
         <v>5.8448629138660571E-2</v>
       </c>
-      <c r="G54" s="84">
+      <c r="G54" s="82">
         <v>7.9127929243147085E-2</v>
       </c>
-      <c r="H54" s="84">
+      <c r="H54" s="82">
         <v>0.12775975636276135</v>
       </c>
-      <c r="I54" s="84">
+      <c r="I54" s="82">
         <v>3.5971769016477528E-2</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="82">
         <v>7.0602523326082967E-2</v>
       </c>
-      <c r="M54" s="84">
+      <c r="M54" s="82">
         <v>7.9326333507582225E-2</v>
       </c>
-      <c r="N54" s="84">
+      <c r="N54" s="82">
         <v>3.7004333076915641E-2</v>
       </c>
-      <c r="O54" s="84">
+      <c r="O54" s="82">
         <v>6.8027813555046501E-2</v>
       </c>
-      <c r="P54" s="84">
+      <c r="P54" s="82">
         <v>1.7973790495439745E-2</v>
       </c>
-      <c r="Q54" s="84">
+      <c r="Q54" s="82">
         <v>2.0540477500010649E-2</v>
       </c>
-      <c r="R54" s="84">
+      <c r="R54" s="82">
         <v>1.4061944643861294E-2</v>
       </c>
-      <c r="S54" s="85">
+      <c r="S54" s="83">
         <v>1.7421016845825761E-2</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="82">
         <v>3.0696377275758469E-3</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="82">
         <v>-7.9521600424430461E-2</v>
       </c>
-      <c r="D55" s="84">
+      <c r="D55" s="82">
         <v>-0.1640062452047728</v>
       </c>
-      <c r="E55" s="84">
+      <c r="E55" s="82">
         <v>-4.75040529289813E-2</v>
       </c>
-      <c r="F55" s="84">
+      <c r="F55" s="82">
         <v>4.8573941225415394E-4</v>
       </c>
-      <c r="G55" s="84">
+      <c r="G55" s="82">
         <v>-9.423096056234185E-4</v>
       </c>
-      <c r="H55" s="84">
+      <c r="H55" s="82">
         <v>-1.6370581689363886E-3</v>
       </c>
-      <c r="I55" s="84">
+      <c r="I55" s="82">
         <v>-4.9625527877041585E-4</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="82">
         <v>-3.1163597843237856E-3</v>
       </c>
-      <c r="M55" s="84">
+      <c r="M55" s="82">
         <v>-1.1982332886727565E-2</v>
       </c>
-      <c r="N55" s="84">
+      <c r="N55" s="82">
         <v>-3.0663850338850329E-2</v>
       </c>
-      <c r="O55" s="84">
+      <c r="O55" s="82">
         <v>-4.6506920664753926E-3</v>
       </c>
-      <c r="P55" s="84">
+      <c r="P55" s="82">
         <v>-2.9718914849995194E-5</v>
       </c>
-      <c r="Q55" s="84">
+      <c r="Q55" s="82">
         <v>-9.1645376861990393E-5</v>
       </c>
-      <c r="R55" s="84">
+      <c r="R55" s="82">
         <v>-7.4786121259128401E-5</v>
       </c>
-      <c r="S55" s="85">
+      <c r="S55" s="83">
         <v>-4.4281840403549579E-5</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="82">
         <v>0.52492774099192041</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="82">
         <v>0.47290131377875722</v>
       </c>
-      <c r="D56" s="84">
+      <c r="D56" s="82">
         <v>0.45520219362972236</v>
       </c>
-      <c r="E56" s="84">
+      <c r="E56" s="82">
         <v>0.4792299898682828</v>
       </c>
-      <c r="F56" s="84">
+      <c r="F56" s="82">
         <v>5.9085794828136293E-2</v>
       </c>
-      <c r="G56" s="84">
+      <c r="G56" s="82">
         <v>4.9036228516070111E-2</v>
       </c>
-      <c r="H56" s="84">
+      <c r="H56" s="82">
         <v>2.0091046221967966E-2</v>
       </c>
-      <c r="I56" s="84">
+      <c r="I56" s="82">
         <v>5.4485842652178082E-2</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="82">
         <v>-0.26682819750242248</v>
       </c>
-      <c r="M56" s="84">
+      <c r="M56" s="82">
         <v>-0.28918013648693042</v>
       </c>
-      <c r="N56" s="84">
+      <c r="N56" s="82">
         <v>-0.29641522420035649</v>
       </c>
-      <c r="O56" s="84">
+      <c r="O56" s="82">
         <v>-0.28941668897379358</v>
       </c>
-      <c r="P56" s="84">
+      <c r="P56" s="82">
         <v>-4.5655275365225699E-2</v>
       </c>
-      <c r="Q56" s="84">
+      <c r="Q56" s="82">
         <v>-4.90718355274017E-2</v>
       </c>
-      <c r="R56" s="84">
+      <c r="R56" s="82">
         <v>-5.1968282956688309E-2</v>
       </c>
-      <c r="S56" s="85">
+      <c r="S56" s="83">
         <v>-4.8628767640643E-2</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="84">
+      <c r="B57" s="82">
         <v>-5.1151521607461836E-2</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="82">
         <v>-0.11558099368023211</v>
       </c>
-      <c r="D57" s="84">
+      <c r="D57" s="82">
         <v>-0.18079071948694259</v>
       </c>
-      <c r="E57" s="84">
+      <c r="E57" s="82">
         <v>-0.13283925250491235</v>
       </c>
-      <c r="F57" s="84">
+      <c r="F57" s="82">
         <v>2.6966631864769171E-2</v>
       </c>
-      <c r="G57" s="84">
+      <c r="G57" s="82">
         <v>3.7932992394388458E-2</v>
       </c>
-      <c r="H57" s="84">
+      <c r="H57" s="82">
         <v>4.3946023074224044E-2</v>
       </c>
-      <c r="I57" s="84">
+      <c r="I57" s="82">
         <v>3.5184914824562645E-2</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L57" s="84">
+      <c r="L57" s="82">
         <v>0.12309232342332521</v>
       </c>
-      <c r="M57" s="84">
+      <c r="M57" s="82">
         <v>9.4942307880358845E-2</v>
       </c>
-      <c r="N57" s="84">
+      <c r="N57" s="82">
         <v>7.8101104540354793E-2</v>
       </c>
-      <c r="O57" s="84">
+      <c r="O57" s="82">
         <v>8.3566354398319831E-2</v>
       </c>
-      <c r="P57" s="84">
+      <c r="P57" s="82">
         <v>-2.6785279585033742E-2</v>
       </c>
-      <c r="Q57" s="84">
+      <c r="Q57" s="82">
         <v>-2.0368057714803548E-2</v>
       </c>
-      <c r="R57" s="84">
+      <c r="R57" s="82">
         <v>-1.9447500499751899E-2</v>
       </c>
-      <c r="S57" s="85">
+      <c r="S57" s="83">
         <v>-1.8396052632686094E-2</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="84">
+      <c r="B58" s="82">
         <v>-8.2075071860280624E-2</v>
       </c>
-      <c r="C58" s="84">
+      <c r="C58" s="82">
         <v>-6.8041562577928816E-2</v>
       </c>
-      <c r="D58" s="84">
+      <c r="D58" s="82">
         <v>4.479945901126281E-2</v>
       </c>
-      <c r="E58" s="84">
+      <c r="E58" s="82">
         <v>-5.3610848312832027E-2</v>
       </c>
-      <c r="F58" s="84">
+      <c r="F58" s="82">
         <v>-8.4681346687440241E-3</v>
       </c>
-      <c r="G58" s="84">
+      <c r="G58" s="82">
         <v>-4.6588096971550141E-3</v>
       </c>
-      <c r="H58" s="84">
+      <c r="H58" s="82">
         <v>9.3120447174060792E-3</v>
       </c>
-      <c r="I58" s="84">
+      <c r="I58" s="82">
         <v>-1.5294233916874934E-2</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="84">
+      <c r="L58" s="82">
         <v>-9.2024235762826478E-2</v>
       </c>
-      <c r="M58" s="84">
+      <c r="M58" s="82">
         <v>-0.12796195723045345</v>
       </c>
-      <c r="N58" s="84">
+      <c r="N58" s="82">
         <v>-5.7073578223168164E-2</v>
       </c>
-      <c r="O58" s="84">
+      <c r="O58" s="82">
         <v>-4.7603935258648034E-2</v>
       </c>
-      <c r="P58" s="84">
+      <c r="P58" s="82">
         <v>-8.1038616923273816E-3</v>
       </c>
-      <c r="Q58" s="84">
+      <c r="Q58" s="82">
         <v>-9.3824817201333677E-3</v>
       </c>
-      <c r="R58" s="84">
+      <c r="R58" s="82">
         <v>-2.9196987557195296E-3</v>
       </c>
-      <c r="S58" s="85">
+      <c r="S58" s="83">
         <v>-1.4639170036887821E-2</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="84">
+      <c r="B59" s="82">
         <v>0.56387916789774906</v>
       </c>
-      <c r="C59" s="84">
+      <c r="C59" s="82">
         <v>0.65478869385608696</v>
       </c>
-      <c r="D59" s="84">
+      <c r="D59" s="82">
         <v>0.55592232021843468</v>
       </c>
-      <c r="E59" s="84">
+      <c r="E59" s="82">
         <v>0.31428571428571428</v>
       </c>
-      <c r="F59" s="84">
+      <c r="F59" s="82">
         <v>-1.5130027316654464E-2</v>
       </c>
-      <c r="G59" s="84">
+      <c r="G59" s="82">
         <v>-1.6097584751280303E-2</v>
       </c>
-      <c r="H59" s="84">
+      <c r="H59" s="82">
         <v>-2.9354841317477606E-2</v>
       </c>
-      <c r="I59" s="84">
+      <c r="I59" s="82">
         <v>-5.5918653146962306E-3</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L59" s="84">
+      <c r="L59" s="82">
         <v>0.24474684954218007</v>
       </c>
-      <c r="M59" s="84">
+      <c r="M59" s="82">
         <v>0.33011745078689625</v>
       </c>
-      <c r="N59" s="84">
+      <c r="N59" s="82">
         <v>0.35406552719956808</v>
       </c>
-      <c r="O59" s="84">
+      <c r="O59" s="82">
         <v>0.12195121951219523</v>
       </c>
-      <c r="P59" s="84">
+      <c r="P59" s="82">
         <v>-6.2644286746166783E-3</v>
       </c>
-      <c r="Q59" s="84">
+      <c r="Q59" s="82">
         <v>-7.2267768148988791E-3</v>
       </c>
-      <c r="R59" s="84">
+      <c r="R59" s="82">
         <v>-7.1323497890225188E-3</v>
       </c>
-      <c r="S59" s="85">
+      <c r="S59" s="83">
         <v>-2.7880447607769674E-3</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="84">
+      <c r="B60" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="82">
         <v>-0.11079789608617224</v>
       </c>
-      <c r="G60" s="84">
+      <c r="G60" s="82">
         <v>-0.14891368565618626</v>
       </c>
-      <c r="H60" s="84">
+      <c r="H60" s="82">
         <v>-0.16399139974877092</v>
       </c>
-      <c r="I60" s="84">
+      <c r="I60" s="82">
         <v>-3.8982045521759677E-2</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L60" s="84">
+      <c r="L60" s="82">
         <v>12.712605725880762</v>
       </c>
-      <c r="M60" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="O60" s="84">
+      <c r="M60" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" s="82">
         <v>6</v>
       </c>
-      <c r="P60" s="84">
+      <c r="P60" s="82">
         <v>-8.3335899884269524E-2</v>
       </c>
-      <c r="Q60" s="84">
+      <c r="Q60" s="82">
         <v>-0.10511936270241233</v>
       </c>
-      <c r="R60" s="84">
+      <c r="R60" s="82">
         <v>-5.0490829919525484E-2</v>
       </c>
-      <c r="S60" s="85">
+      <c r="S60" s="83">
         <v>-3.8749972884779972E-2</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="84">
+      <c r="B61" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="82">
         <v>14.371746436499318</v>
       </c>
-      <c r="D61" s="84">
+      <c r="D61" s="82">
         <v>18.345314475304011</v>
       </c>
-      <c r="E61" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="84">
+      <c r="E61" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="82">
         <v>7.305085379506848E-4</v>
       </c>
-      <c r="G61" s="84">
+      <c r="G61" s="82">
         <v>6.4664891182709234E-4</v>
       </c>
-      <c r="H61" s="84">
+      <c r="H61" s="82">
         <v>9.9708220040971296E-4</v>
       </c>
-      <c r="I61" s="84">
+      <c r="I61" s="82">
         <v>5.238707601121521E-4</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="84">
+      <c r="L61" s="82">
         <v>3.5145760044780792</v>
       </c>
-      <c r="M61" s="84">
+      <c r="M61" s="82">
         <v>8.1112945284873792</v>
       </c>
-      <c r="N61" s="84">
+      <c r="N61" s="82">
         <v>13.459172747407424</v>
       </c>
-      <c r="O61" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P61" s="84">
+      <c r="O61" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" s="82">
         <v>4.7232320736753902E-4</v>
       </c>
-      <c r="Q61" s="84">
+      <c r="Q61" s="82">
         <v>4.2313452912436642E-4</v>
       </c>
-      <c r="R61" s="84">
+      <c r="R61" s="82">
         <v>2.9301928300001177E-4</v>
       </c>
-      <c r="S61" s="85">
+      <c r="S61" s="83">
         <v>6.092733128730826E-4</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="84">
+      <c r="B62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="82">
         <v>-1.695469540618039E-2</v>
       </c>
-      <c r="G62" s="84">
+      <c r="G62" s="82">
         <v>-1.3085727877240584E-2</v>
       </c>
-      <c r="H62" s="84">
+      <c r="H62" s="82">
         <v>-5.8941115926354724E-3</v>
       </c>
-      <c r="I62" s="84">
+      <c r="I62" s="82">
         <v>-2.1737911004340076E-2</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="O62" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P62" s="84">
+      <c r="L62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P62" s="82">
         <v>-1.3796332658050522E-2</v>
       </c>
-      <c r="Q62" s="84">
+      <c r="Q62" s="82">
         <v>-9.2373200548446482E-3</v>
       </c>
-      <c r="R62" s="84">
+      <c r="R62" s="82">
         <v>-1.8147206890505947E-3</v>
       </c>
-      <c r="S62" s="85">
+      <c r="S62" s="83">
         <v>-2.5281672620398064E-2</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="89">
-        <v>0</v>
-      </c>
-      <c r="G63" s="89">
-        <v>0</v>
-      </c>
-      <c r="H63" s="89">
-        <v>0</v>
-      </c>
-      <c r="I63" s="89">
+      <c r="B63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="87">
+        <v>0</v>
+      </c>
+      <c r="G63" s="87">
+        <v>0</v>
+      </c>
+      <c r="H63" s="87">
+        <v>0</v>
+      </c>
+      <c r="I63" s="87">
         <v>0</v>
       </c>
       <c r="J63" s="11"/>
-      <c r="K63" s="90" t="s">
+      <c r="K63" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="O63" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="P63" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="89">
-        <v>0</v>
-      </c>
-      <c r="R63" s="89">
-        <v>0</v>
-      </c>
-      <c r="S63" s="89">
+      <c r="L63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="P63" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="87">
+        <v>0</v>
+      </c>
+      <c r="R63" s="87">
+        <v>0</v>
+      </c>
+      <c r="S63" s="87">
         <v>0</v>
       </c>
       <c r="T63" s="10"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="89">
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="87">
         <v>0.14745462102812684</v>
       </c>
-      <c r="G64" s="89">
+      <c r="G64" s="87">
         <v>0.20887737945891771</v>
       </c>
-      <c r="H64" s="89">
+      <c r="H64" s="87">
         <v>1.6393513079505562</v>
       </c>
-      <c r="I64" s="89">
+      <c r="I64" s="87">
         <v>0</v>
       </c>
       <c r="J64" s="11"/>
-      <c r="K64" s="90" t="s">
+      <c r="K64" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="89">
-        <v>0</v>
-      </c>
-      <c r="R64" s="89">
+      <c r="L64" s="86"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="86"/>
+      <c r="O64" s="86"/>
+      <c r="P64" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="87">
+        <v>0</v>
+      </c>
+      <c r="R64" s="87">
         <v>2.5405785200228227E-2</v>
       </c>
-      <c r="S64" s="89">
+      <c r="S64" s="87">
         <v>0</v>
       </c>
       <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" s="87" t="s">
+      <c r="A65" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="88"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="89">
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="87">
         <v>0.20207403838031524</v>
       </c>
-      <c r="G65" s="89">
+      <c r="G65" s="87">
         <v>0.27687326515384192</v>
       </c>
-      <c r="H65" s="89">
+      <c r="H65" s="87">
         <v>2.0559033170270387</v>
       </c>
-      <c r="I65" s="89">
+      <c r="I65" s="87">
         <v>-0.15731848779635693</v>
       </c>
       <c r="J65" s="11"/>
-      <c r="K65" s="90" t="s">
+      <c r="K65" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="89">
+      <c r="L65" s="86"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="86"/>
+      <c r="O65" s="86"/>
+      <c r="P65" s="87">
         <v>-0.12516979013988128</v>
       </c>
-      <c r="Q65" s="89">
+      <c r="Q65" s="87">
         <v>-0.11125827578747582</v>
       </c>
-      <c r="R65" s="89">
+      <c r="R65" s="87">
         <v>-5.8564387637995985E-2</v>
       </c>
-      <c r="S65" s="89">
+      <c r="S65" s="87">
         <v>-0.17013669148810295</v>
       </c>
       <c r="T65" s="10"/>
@@ -3818,36 +3820,36 @@
       <c r="C66" s="56"/>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
-      <c r="F66" s="91">
+      <c r="F66" s="89">
         <v>5.256267595242381E-2</v>
       </c>
-      <c r="G66" s="91">
+      <c r="G66" s="89">
         <v>0.19306628256791569</v>
       </c>
-      <c r="H66" s="91">
+      <c r="H66" s="89">
         <v>1.8430312629402876</v>
       </c>
-      <c r="I66" s="91">
+      <c r="I66" s="89">
         <v>-0.22081445979118186</v>
       </c>
       <c r="J66" s="11"/>
-      <c r="K66" s="92" t="s">
+      <c r="K66" s="90" t="s">
         <v>23</v>
       </c>
       <c r="L66" s="56"/>
       <c r="M66" s="56"/>
       <c r="N66" s="56"/>
       <c r="O66" s="56"/>
-      <c r="P66" s="91">
+      <c r="P66" s="89">
         <v>-0.14351131217644642</v>
       </c>
-      <c r="Q66" s="91">
+      <c r="Q66" s="89">
         <v>-0.15780496109112685</v>
       </c>
-      <c r="R66" s="91">
+      <c r="R66" s="89">
         <v>-0.12466746321501743</v>
       </c>
-      <c r="S66" s="91">
+      <c r="S66" s="89">
         <v>-9.3789935280610415E-2</v>
       </c>
       <c r="T66" s="10"/>
@@ -3860,36 +3862,36 @@
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="91">
+      <c r="F67" s="89">
         <v>-0.14951136242789143</v>
       </c>
-      <c r="G67" s="91">
+      <c r="G67" s="89">
         <v>-8.3806982585926226E-2</v>
       </c>
-      <c r="H67" s="91">
+      <c r="H67" s="89">
         <v>-0.21287205408675103</v>
       </c>
-      <c r="I67" s="91">
+      <c r="I67" s="89">
         <v>-6.3495971994824929E-2</v>
       </c>
       <c r="J67" s="11"/>
-      <c r="K67" s="92" t="s">
+      <c r="K67" s="90" t="s">
         <v>24</v>
       </c>
       <c r="L67" s="56"/>
       <c r="M67" s="56"/>
       <c r="N67" s="56"/>
       <c r="O67" s="56"/>
-      <c r="P67" s="91">
+      <c r="P67" s="89">
         <v>-1.8341522036565139E-2</v>
       </c>
-      <c r="Q67" s="91">
+      <c r="Q67" s="89">
         <v>-4.6546685303651025E-2</v>
       </c>
-      <c r="R67" s="91">
+      <c r="R67" s="89">
         <v>-6.6103075577021442E-2</v>
       </c>
-      <c r="S67" s="91">
+      <c r="S67" s="89">
         <v>7.6346756207492539E-2</v>
       </c>
       <c r="T67" s="10"/>
@@ -3928,7 +3930,7 @@
       <c r="S70" s="38"/>
     </row>
     <row r="71" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
@@ -3950,32 +3952,32 @@
     </row>
     <row r="72" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82" t="s">
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="82"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
       <c r="J72" s="20"/>
       <c r="K72" s="21"/>
-      <c r="L72" s="82" t="s">
+      <c r="L72" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="82"/>
-      <c r="N72" s="82"/>
-      <c r="O72" s="82"/>
-      <c r="P72" s="82" t="s">
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="82"/>
-      <c r="R72" s="82"/>
-      <c r="S72" s="83"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="95"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
@@ -4035,660 +4037,684 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="86" t="s">
+      <c r="A74" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="84">
+      <c r="B74" s="82">
         <v>0.38541373407580837</v>
       </c>
-      <c r="C74" s="84">
+      <c r="C74" s="82">
         <v>0.31632749081972822</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84">
+      <c r="D74" s="82"/>
+      <c r="E74" s="82">
         <v>0.18137465287922283</v>
       </c>
-      <c r="F74" s="84">
+      <c r="F74" s="82">
         <v>0.42135193050009845</v>
       </c>
-      <c r="G74" s="84">
+      <c r="G74" s="82">
         <v>0.93345490147288801</v>
       </c>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84">
+      <c r="H74" s="82"/>
+      <c r="I74" s="82">
         <v>0.13233175942344247</v>
       </c>
       <c r="J74" s="37"/>
       <c r="K74" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L74" s="84">
+      <c r="L74" s="82">
         <v>0.14006413725639866</v>
       </c>
-      <c r="M74" s="84">
+      <c r="M74" s="82">
         <v>8.2208536725669079E-2</v>
       </c>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84">
+      <c r="N74" s="82">
+        <v>0</v>
+      </c>
+      <c r="O74" s="82">
         <v>3.3807372825378934E-2</v>
       </c>
-      <c r="P74" s="84">
+      <c r="P74" s="82">
         <v>0.10512043764698095</v>
       </c>
-      <c r="Q74" s="84">
+      <c r="Q74" s="82">
         <v>0.18341580169273336</v>
       </c>
-      <c r="R74" s="84"/>
-      <c r="S74" s="85">
+      <c r="R74" s="82"/>
+      <c r="S74" s="83">
         <v>2.3427518736871506E-2</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" s="86" t="s">
+      <c r="A75" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="84">
+      <c r="B75" s="82">
         <v>0.36770932650067856</v>
       </c>
-      <c r="C75" s="84">
+      <c r="C75" s="82">
         <v>7.3155663604620003E-2</v>
       </c>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84">
+      <c r="D75" s="82"/>
+      <c r="E75" s="82">
         <v>0.11047617118090347</v>
       </c>
-      <c r="F75" s="84">
+      <c r="F75" s="82">
         <v>-0.10353389687912955</v>
       </c>
-      <c r="G75" s="84">
+      <c r="G75" s="82">
         <v>-4.444993596727053E-2</v>
       </c>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84">
+      <c r="H75" s="82"/>
+      <c r="I75" s="82">
         <v>-5.0639915737759209E-2</v>
       </c>
       <c r="J75" s="37"/>
       <c r="K75" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L75" s="84">
+      <c r="L75" s="82">
         <v>0.11408327468523938</v>
       </c>
-      <c r="M75" s="84">
+      <c r="M75" s="82">
         <v>-5.1324847307856469E-3</v>
       </c>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84">
+      <c r="N75" s="82">
+        <v>0</v>
+      </c>
+      <c r="O75" s="82">
         <v>0.15271427994669717</v>
       </c>
-      <c r="P75" s="84">
+      <c r="P75" s="82">
         <v>-3.3634471491176779E-2</v>
       </c>
-      <c r="Q75" s="84">
+      <c r="Q75" s="82">
         <v>-7.5092960348632281E-3</v>
       </c>
-      <c r="R75" s="84"/>
-      <c r="S75" s="85">
+      <c r="R75" s="82"/>
+      <c r="S75" s="83">
         <v>-3.9810964939003858E-2</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="84">
+      <c r="B76" s="82">
         <v>0.21337346996298678</v>
       </c>
-      <c r="C76" s="84">
+      <c r="C76" s="82">
         <v>3.0949089227063853E-2</v>
       </c>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84">
+      <c r="D76" s="82"/>
+      <c r="E76" s="82">
         <v>0.15994463230777156</v>
       </c>
-      <c r="F76" s="84">
+      <c r="F76" s="82">
         <v>7.2526438140430666E-2</v>
       </c>
-      <c r="G76" s="84">
+      <c r="G76" s="82">
         <v>6.6961042540228277E-2</v>
       </c>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84">
+      <c r="H76" s="82"/>
+      <c r="I76" s="82">
         <v>5.0724503080743111E-2</v>
       </c>
       <c r="J76" s="37"/>
       <c r="K76" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L76" s="84">
+      <c r="L76" s="82">
         <v>7.4209093944898497E-2</v>
       </c>
-      <c r="M76" s="84">
+      <c r="M76" s="82">
         <v>3.302468913519041E-2</v>
       </c>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84">
+      <c r="N76" s="82">
+        <v>0</v>
+      </c>
+      <c r="O76" s="82">
         <v>6.8027813555046501E-2</v>
       </c>
-      <c r="P76" s="84">
+      <c r="P76" s="82">
         <v>1.7839506147017563E-2</v>
       </c>
-      <c r="Q76" s="84">
+      <c r="Q76" s="82">
         <v>1.8360965183951295E-2</v>
       </c>
-      <c r="R76" s="84"/>
-      <c r="S76" s="85">
+      <c r="R76" s="82"/>
+      <c r="S76" s="83">
         <v>1.8106941059118302E-2</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="84">
+      <c r="B77" s="82">
         <v>0.13542923080021674</v>
       </c>
-      <c r="C77" s="84">
+      <c r="C77" s="82">
         <v>2.8240837294944088E-2</v>
       </c>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84">
+      <c r="D77" s="82"/>
+      <c r="E77" s="82">
         <v>-4.75040529289813E-2</v>
       </c>
-      <c r="F77" s="84">
+      <c r="F77" s="82">
         <v>2.7145611466847784E-3</v>
       </c>
-      <c r="G77" s="84">
+      <c r="G77" s="82">
         <v>-9.0434626519059799E-4</v>
       </c>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84">
+      <c r="H77" s="82"/>
+      <c r="I77" s="82">
         <v>-6.3039296983069147E-4</v>
       </c>
       <c r="J77" s="37"/>
       <c r="K77" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="L77" s="84">
+      <c r="L77" s="82">
         <v>-8.1473703988121926E-4</v>
       </c>
-      <c r="M77" s="84">
+      <c r="M77" s="82">
         <v>4.8383228548142698E-2</v>
       </c>
-      <c r="N77" s="84"/>
-      <c r="O77" s="84">
+      <c r="N77" s="82">
+        <v>0</v>
+      </c>
+      <c r="O77" s="82">
         <v>-4.6506920664753926E-3</v>
       </c>
-      <c r="P77" s="84">
+      <c r="P77" s="82">
         <v>-7.4774508290703506E-6</v>
       </c>
-      <c r="Q77" s="84">
+      <c r="Q77" s="82">
         <v>-1.3844016589548334E-4</v>
       </c>
-      <c r="R77" s="84"/>
-      <c r="S77" s="85">
+      <c r="R77" s="82"/>
+      <c r="S77" s="83">
         <v>-5.190312720767821E-5</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78" s="86" t="s">
+      <c r="A78" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="84">
+      <c r="B78" s="82">
         <v>0.50089054497425045</v>
       </c>
-      <c r="C78" s="84">
+      <c r="C78" s="82">
         <v>0.46628289151331481</v>
       </c>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84">
+      <c r="D78" s="82"/>
+      <c r="E78" s="82">
         <v>0.4792299898682828</v>
       </c>
-      <c r="F78" s="84">
+      <c r="F78" s="82">
         <v>5.46499354713827E-2</v>
       </c>
-      <c r="G78" s="84">
+      <c r="G78" s="82">
         <v>2.7686352578401543E-2</v>
       </c>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84">
+      <c r="H78" s="82"/>
+      <c r="I78" s="82">
         <v>4.4686878987974112E-2</v>
       </c>
       <c r="J78" s="37"/>
       <c r="K78" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L78" s="84">
+      <c r="L78" s="82">
         <v>-0.28284848271592922</v>
       </c>
-      <c r="M78" s="84">
+      <c r="M78" s="82">
         <v>-0.28578528255612468</v>
       </c>
-      <c r="N78" s="84"/>
-      <c r="O78" s="84">
+      <c r="N78" s="82">
+        <v>0</v>
+      </c>
+      <c r="O78" s="82">
         <v>-0.28941668897379358</v>
       </c>
-      <c r="P78" s="84">
+      <c r="P78" s="82">
         <v>-4.8736953148769538E-2</v>
       </c>
-      <c r="Q78" s="84">
+      <c r="Q78" s="82">
         <v>-4.8129251277335611E-2</v>
       </c>
-      <c r="R78" s="84"/>
-      <c r="S78" s="85">
+      <c r="R78" s="82"/>
+      <c r="S78" s="83">
         <v>-5.0973199191571103E-2</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="86" t="s">
+      <c r="A79" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="84">
+      <c r="B79" s="82">
         <v>-0.10640627166391547</v>
       </c>
-      <c r="C79" s="84">
+      <c r="C79" s="82">
         <v>-0.11927491324544848</v>
       </c>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84">
+      <c r="D79" s="82"/>
+      <c r="E79" s="82">
         <v>-0.13283925250491235</v>
       </c>
-      <c r="F79" s="84">
+      <c r="F79" s="82">
         <v>2.5570707797056395E-2</v>
       </c>
-      <c r="G79" s="84">
+      <c r="G79" s="82">
         <v>2.6632083372228967E-2</v>
       </c>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84">
+      <c r="H79" s="82"/>
+      <c r="I79" s="82">
         <v>3.4058130492517526E-2</v>
       </c>
       <c r="J79" s="37"/>
       <c r="K79" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L79" s="84">
+      <c r="L79" s="82">
         <v>0.10341376768534993</v>
       </c>
-      <c r="M79" s="84">
+      <c r="M79" s="82">
         <v>9.3129053179390242E-2</v>
       </c>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84">
+      <c r="N79" s="82">
+        <v>0</v>
+      </c>
+      <c r="O79" s="82">
         <v>8.3566354398319831E-2</v>
       </c>
-      <c r="P79" s="84">
+      <c r="P79" s="82">
         <v>-2.7070363945385822E-2</v>
       </c>
-      <c r="Q79" s="84">
+      <c r="Q79" s="82">
         <v>-2.3764510529207316E-2</v>
       </c>
-      <c r="R79" s="84"/>
-      <c r="S79" s="85">
+      <c r="R79" s="82"/>
+      <c r="S79" s="83">
         <v>-2.0469085178367704E-2</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A80" s="86" t="s">
+      <c r="A80" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="84">
+      <c r="B80" s="82">
         <v>-4.1917668334005009E-2</v>
       </c>
-      <c r="C80" s="84">
+      <c r="C80" s="82">
         <v>-2.6870645185520736E-2</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84">
+      <c r="D80" s="82"/>
+      <c r="E80" s="82">
         <v>-5.3610848312835024E-2</v>
       </c>
-      <c r="F80" s="84">
+      <c r="F80" s="82">
         <v>-8.4202816939137788E-3</v>
       </c>
-      <c r="G80" s="84">
+      <c r="G80" s="82">
         <v>-6.7797684501872029E-3</v>
       </c>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84">
+      <c r="H80" s="82"/>
+      <c r="I80" s="82">
         <v>-1.9592506048744407E-2</v>
       </c>
       <c r="J80" s="37"/>
       <c r="K80" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L80" s="84">
+      <c r="L80" s="82">
         <v>-9.6225630049772803E-2</v>
       </c>
-      <c r="M80" s="84">
+      <c r="M80" s="82">
         <v>-0.14864888870109816</v>
       </c>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84">
+      <c r="N80" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="O80" s="82">
         <v>-4.7603935258648034E-2</v>
       </c>
-      <c r="P80" s="84">
+      <c r="P80" s="82">
         <v>-7.8658831635021065E-3</v>
       </c>
-      <c r="Q80" s="84">
+      <c r="Q80" s="82">
         <v>-1.2346165650857624E-2</v>
       </c>
-      <c r="R80" s="84"/>
-      <c r="S80" s="85">
+      <c r="R80" s="82"/>
+      <c r="S80" s="83">
         <v>-1.4675300638960857E-2</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A81" s="86" t="s">
+      <c r="A81" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="84">
+      <c r="B81" s="82">
         <v>0.54503585396484411</v>
       </c>
-      <c r="C81" s="84">
+      <c r="C81" s="82">
         <v>0.67158485704132009</v>
       </c>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84">
+      <c r="D81" s="82"/>
+      <c r="E81" s="82">
         <v>0.31428571428571428</v>
       </c>
-      <c r="F81" s="84">
+      <c r="F81" s="82">
         <v>-1.8886673303374638E-2</v>
       </c>
-      <c r="G81" s="84">
+      <c r="G81" s="82">
         <v>-2.4604147851612742E-2</v>
       </c>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84">
+      <c r="H81" s="82"/>
+      <c r="I81" s="82">
         <v>-9.0847799012030109E-3</v>
       </c>
       <c r="J81" s="37"/>
       <c r="K81" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L81" s="84">
+      <c r="L81" s="82">
         <v>0.26248677896491213</v>
       </c>
-      <c r="M81" s="84">
+      <c r="M81" s="82">
         <v>0.29703489878686518</v>
       </c>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84">
+      <c r="N81" s="82">
+        <v>0</v>
+      </c>
+      <c r="O81" s="82">
         <v>0.12195121951219523</v>
       </c>
-      <c r="P81" s="84">
+      <c r="P81" s="82">
         <v>-6.849761044787234E-3</v>
       </c>
-      <c r="Q81" s="84">
+      <c r="Q81" s="82">
         <v>-9.8738536179376266E-3</v>
       </c>
-      <c r="R81" s="84"/>
-      <c r="S81" s="85">
+      <c r="R81" s="82"/>
+      <c r="S81" s="83">
         <v>-2.9989361679301956E-3</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="84">
+      <c r="B82" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="82">
         <v>6.8784818654548177E-2</v>
       </c>
-      <c r="G82" s="84">
+      <c r="G82" s="82">
         <v>-0.12611128998807333</v>
       </c>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84">
+      <c r="H82" s="82"/>
+      <c r="I82" s="82">
         <v>0.36047433057505796</v>
       </c>
       <c r="J82" s="37"/>
       <c r="K82" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L82" s="84">
+      <c r="L82" s="82">
         <v>12.445257910880175</v>
       </c>
-      <c r="M82" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P82" s="84">
+      <c r="M82" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" s="82">
+        <v>0</v>
+      </c>
+      <c r="O82" s="82">
+        <v>6</v>
+      </c>
+      <c r="P82" s="82">
         <v>3.9770675995346443E-2</v>
       </c>
-      <c r="Q82" s="84">
+      <c r="Q82" s="82">
         <v>-7.0335575181632262E-2</v>
       </c>
-      <c r="R82" s="84"/>
-      <c r="S82" s="85">
-        <v>0</v>
+      <c r="R82" s="82"/>
+      <c r="S82" s="83">
+        <v>0.2157252724829597</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B83" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="84">
+      <c r="B83" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="82">
         <v>0.78362838332497486</v>
       </c>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84">
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82">
         <v>9.5555121230523016E-4</v>
       </c>
-      <c r="G83" s="84">
+      <c r="G83" s="82">
         <v>6.8477421819653547E-4</v>
       </c>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84">
+      <c r="H83" s="82"/>
+      <c r="I83" s="82">
         <v>8.7991289058696415E-4</v>
       </c>
       <c r="J83" s="37"/>
       <c r="K83" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L83" s="84">
+      <c r="L83" s="82">
         <v>4.0398594527158354</v>
       </c>
-      <c r="M83" s="84">
+      <c r="M83" s="82">
         <v>0.84460994006339818</v>
       </c>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P83" s="84">
+      <c r="N83" s="82">
+        <v>0</v>
+      </c>
+      <c r="O83" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P83" s="82">
         <v>4.0374855869671329E-4</v>
       </c>
-      <c r="Q83" s="84">
+      <c r="Q83" s="82">
         <v>3.5098851157710451E-4</v>
       </c>
-      <c r="R83" s="84"/>
-      <c r="S83" s="85">
-        <v>0</v>
+      <c r="R83" s="82"/>
+      <c r="S83" s="83">
+        <v>6.0927331287308141E-4</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" s="86" t="s">
+      <c r="A84" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84">
-        <v>0</v>
-      </c>
-      <c r="G84" s="84">
-        <v>0</v>
-      </c>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84">
+      <c r="B84" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82">
+        <v>0</v>
+      </c>
+      <c r="G84" s="82">
+        <v>0</v>
+      </c>
+      <c r="H84" s="82"/>
+      <c r="I84" s="82">
         <v>0</v>
       </c>
       <c r="J84" s="37"/>
       <c r="K84" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L84" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="M84" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P84" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="84">
-        <v>0</v>
-      </c>
-      <c r="R84" s="84"/>
-      <c r="S84" s="85">
+      <c r="L84" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M84" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="N84" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O84" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P84" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="82">
+        <v>0</v>
+      </c>
+      <c r="R84" s="82"/>
+      <c r="S84" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A85" s="86" t="s">
+      <c r="A85" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84">
+      <c r="B85" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82">
         <v>-1.0621891520527626E-2</v>
       </c>
-      <c r="G85" s="84">
+      <c r="G85" s="82">
         <v>-1.1577465643913329E-2</v>
       </c>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84">
+      <c r="H85" s="82"/>
+      <c r="I85" s="82">
         <v>-1.6495800082805247E-2</v>
       </c>
       <c r="J85" s="37"/>
       <c r="K85" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L85" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P85" s="84">
+      <c r="L85" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O85" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" s="82">
         <v>-6.7481249744095178E-3</v>
       </c>
-      <c r="Q85" s="84">
+      <c r="Q85" s="82">
         <v>-6.4570563451316837E-3</v>
       </c>
-      <c r="R85" s="84"/>
-      <c r="S85" s="85">
-        <v>0</v>
+      <c r="R85" s="82"/>
+      <c r="S85" s="83">
+        <v>-1.1422097428574368E-2</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A86" s="87" t="s">
+      <c r="A86" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="88"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="89">
+      <c r="B86" s="86"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="87">
         <v>5.2750395249627914E-2</v>
       </c>
-      <c r="G86" s="89">
+      <c r="G86" s="87">
         <v>0.31256999616775372</v>
       </c>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89">
+      <c r="H86" s="87"/>
+      <c r="I86" s="87">
         <v>0</v>
       </c>
       <c r="J86" s="37"/>
-      <c r="K86" s="88" t="s">
+      <c r="K86" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="L86" s="88"/>
-      <c r="M86" s="88"/>
-      <c r="N86" s="88"/>
-      <c r="O86" s="88"/>
-      <c r="P86" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="89">
+      <c r="L86" s="86"/>
+      <c r="M86" s="86"/>
+      <c r="N86" s="86"/>
+      <c r="O86" s="86"/>
+      <c r="P86" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="87">
         <v>5.1846237541278775E-2</v>
       </c>
-      <c r="R86" s="89"/>
-      <c r="S86" s="89">
+      <c r="R86" s="87"/>
+      <c r="S86" s="87">
         <v>0</v>
       </c>
       <c r="T86" s="10"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A87" s="87" t="s">
+      <c r="A87" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="88"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="89">
+      <c r="B87" s="86"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="87">
         <v>0.84204972666464206</v>
       </c>
-      <c r="G87" s="89">
+      <c r="G87" s="87">
         <v>1.242124989254636</v>
       </c>
-      <c r="H87" s="89"/>
-      <c r="I87" s="89">
+      <c r="H87" s="87"/>
+      <c r="I87" s="87">
         <v>0.51639712840502794</v>
       </c>
       <c r="J87" s="37"/>
-      <c r="K87" s="88" t="s">
+      <c r="K87" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L87" s="88"/>
-      <c r="M87" s="88"/>
-      <c r="N87" s="88"/>
-      <c r="O87" s="88"/>
-      <c r="P87" s="89">
+      <c r="L87" s="86"/>
+      <c r="M87" s="86"/>
+      <c r="N87" s="86"/>
+      <c r="O87" s="86"/>
+      <c r="P87" s="87">
         <v>3.2701530563572057E-2</v>
       </c>
-      <c r="Q87" s="89">
+      <c r="Q87" s="87">
         <v>6.6220660234173279E-2</v>
       </c>
-      <c r="R87" s="89"/>
-      <c r="S87" s="89">
-        <v>0</v>
+      <c r="R87" s="87"/>
+      <c r="S87" s="87">
+        <v>0.11508591238967636</v>
       </c>
       <c r="T87" s="10"/>
     </row>
@@ -4700,14 +4726,14 @@
       <c r="C88" s="56"/>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
-      <c r="F88" s="91">
+      <c r="F88" s="89">
         <v>0.52907541737111385</v>
       </c>
-      <c r="G88" s="91">
+      <c r="G88" s="89">
         <v>0.82157762143969992</v>
       </c>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91">
+      <c r="H88" s="89"/>
+      <c r="I88" s="89">
         <v>0.49309529238476402</v>
       </c>
       <c r="J88" s="37"/>
@@ -4718,15 +4744,15 @@
       <c r="M88" s="56"/>
       <c r="N88" s="56"/>
       <c r="O88" s="56"/>
-      <c r="P88" s="91">
+      <c r="P88" s="89">
         <v>-2.8573019054414117E-2</v>
       </c>
-      <c r="Q88" s="91">
+      <c r="Q88" s="89">
         <v>1.5941631824301306E-2</v>
       </c>
-      <c r="R88" s="91"/>
-      <c r="S88" s="91">
-        <v>0</v>
+      <c r="R88" s="89"/>
+      <c r="S88" s="89">
+        <v>3.3855879324180549E-2</v>
       </c>
       <c r="T88" s="10"/>
     </row>
@@ -4738,14 +4764,14 @@
       <c r="C89" s="56"/>
       <c r="D89" s="56"/>
       <c r="E89" s="56"/>
-      <c r="F89" s="91">
+      <c r="F89" s="89">
         <v>-0.31297430929352821</v>
       </c>
-      <c r="G89" s="91">
+      <c r="G89" s="89">
         <v>-0.42054736781493607</v>
       </c>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91">
+      <c r="H89" s="89"/>
+      <c r="I89" s="89">
         <v>-2.3301836020263922E-2</v>
       </c>
       <c r="J89" s="37"/>
@@ -4756,15 +4782,15 @@
       <c r="M89" s="56"/>
       <c r="N89" s="56"/>
       <c r="O89" s="56"/>
-      <c r="P89" s="91">
+      <c r="P89" s="89">
         <v>-6.1274549617986174E-2</v>
       </c>
-      <c r="Q89" s="91">
+      <c r="Q89" s="89">
         <v>-5.0279028409871973E-2</v>
       </c>
-      <c r="R89" s="91"/>
-      <c r="S89" s="91">
-        <v>0.2157252724829597</v>
+      <c r="R89" s="89"/>
+      <c r="S89" s="89">
+        <v>-8.123003306549581E-2</v>
       </c>
       <c r="T89" s="10"/>
     </row>
@@ -5787,7 +5813,7 @@
       <c r="S113" s="54"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="86"/>
+      <c r="A114" s="84"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
@@ -5808,7 +5834,7 @@
       <c r="S114" s="36"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A115" s="95" t="s">
+      <c r="A115" s="93" t="s">
         <v>25</v>
       </c>
       <c r="B115" s="40"/>
@@ -5820,7 +5846,7 @@
       <c r="H115" s="40"/>
       <c r="I115" s="40"/>
       <c r="J115" s="36"/>
-      <c r="K115" s="95" t="s">
+      <c r="K115" s="93" t="s">
         <v>26</v>
       </c>
       <c r="L115" s="40"/>
@@ -5832,7 +5858,7 @@
       <c r="R115" s="40"/>
       <c r="S115" s="40"/>
     </row>
-    <row r="116" spans="1:19" s="92" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="90" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="51"/>
       <c r="B116" s="51"/>
       <c r="C116" s="51"/>
@@ -5853,7 +5879,7 @@
       <c r="R116" s="51"/>
       <c r="S116" s="51"/>
     </row>
-    <row r="117" spans="1:19" s="94" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" s="92" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A117" s="65"/>
       <c r="B117" s="66" t="s">
         <v>3</v>
@@ -5882,7 +5908,7 @@
       <c r="R117" s="66"/>
       <c r="S117" s="68"/>
     </row>
-    <row r="118" spans="1:19" s="92" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="90" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>5</v>
       </c>
@@ -5935,7 +5961,7 @@
       <c r="R118" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S118" s="93" t="s">
+      <c r="S118" s="91" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8805,6 +8831,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="F72:I72"/>
     <mergeCell ref="L72:O72"/>
@@ -8813,10 +8843,6 @@
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="L50:O50"/>
     <mergeCell ref="P50:S50"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
